--- a/mastercoa_template.xlsx
+++ b/mastercoa_template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngrh\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gea-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54209B02-C524-4C49-B4AC-1DD445BCE7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B0D241-0A6B-4566-8B01-CE3E0CA6A965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{8F265BB0-790D-4A87-A0F5-C5D59E3F0985}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8F265BB0-790D-4A87-A0F5-C5D59E3F0985}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Keterangan Field" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,15 +26,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Tes 1</t>
-  </si>
-  <si>
-    <t>Tes 2</t>
-  </si>
-  <si>
-    <t>Tes 3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>Kode</t>
+  </si>
+  <si>
+    <t>Nama Akun</t>
+  </si>
+  <si>
+    <t>Kelompok Akun</t>
+  </si>
+  <si>
+    <t>Aset/Aktiva</t>
+  </si>
+  <si>
+    <t>Kewajiban/Passiva</t>
+  </si>
+  <si>
+    <t>Pendapatan</t>
+  </si>
+  <si>
+    <t>Beban</t>
+  </si>
+  <si>
+    <t>Keterangan Field</t>
+  </si>
+  <si>
+    <t>Jenis</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Inventaris Dibayar Dimuka</t>
+  </si>
+  <si>
+    <t>TK Dibayar Dimuka</t>
+  </si>
+  <si>
+    <t>Properti Dibayar Dimuka</t>
   </si>
 </sst>
 </file>
@@ -49,15 +86,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -65,12 +108,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,48 +570,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1608D1-1598-42B8-964E-722275E6728C}">
-  <dimension ref="B3:D5"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{A81C2754-F096-4AA0-808C-43CFDF724216}">
+      <formula1>0</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E3:E1048576" xr:uid="{2B899FA9-655B-4D12-AC46-F24DD0E8CFF9}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564B4BDD-C926-4EF4-9281-66437460B9F9}">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="F4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>